--- a/Execution Providers Tester/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6306,7 +6306,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 11:56:47</t>
+          <t>2025-08-27 12:31:36</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6306,7 +6306,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 12:31:36</t>
+          <t>2025-08-27 16:50:02</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6306,7 +6306,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 16:50:02</t>
+          <t>2025-08-27 17:04:56</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6306,7 +6306,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 17:04:56</t>
+          <t>2025-08-27 17:13:19</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6306,7 +6306,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 17:13:19</t>
+          <t>2025-08-27 17:59:38</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_20/CPU/report_CPUExecutionProvider_aggregated.xlsx
@@ -6306,7 +6306,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 17:59:38</t>
+          <t>2025-08-29 10:45:37</t>
         </is>
       </c>
     </row>
